--- a/OkameiProduction.Web/Initializer/AgreementForm.xlsx
+++ b/OkameiProduction.Web/Initializer/AgreementForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Okame\Okamei\OkameiProduction.Web\Initializer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF492D-64FD-4AD4-952E-BBBA27F3BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B4298-085A-4768-9697-78F2A0785494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" xr2:uid="{0A39A006-42F4-4E27-97E3-40D1F27EDA8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="575" xr2:uid="{0A39A006-42F4-4E27-97E3-40D1F27EDA8B}"/>
   </bookViews>
   <sheets>
     <sheet name="加工承諾書" sheetId="66" r:id="rId1"/>
@@ -93,6 +93,7 @@
     <definedName name="NN" hidden="1">{"'■メモリ組合対応表(00冬)'!$A$1:$D$38"}</definedName>
     <definedName name="NNN">#REF!</definedName>
     <definedName name="OO" hidden="1">{"'■メモリ組合対応表(00冬)'!$A$1:$D$38"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">加工承諾書!$A$1:$AG$62</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="PRINT_TITES">[5]JOB一覧表!$A$1:$IV$5</definedName>
@@ -391,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>株式会社　岡本銘木店</t>
     <rPh sb="0" eb="4">
@@ -400,40 +401,33 @@
     <rPh sb="5" eb="10">
       <t>オカモトメイボクテン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>ああああああああああいいいいいいいいいい　御中</t>
-    <rPh sb="21" eb="23">
-      <t>オンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
       <t>サマ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>あああ</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>支店</t>
     <rPh sb="0" eb="2">
       <t>シテン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ああああああああ</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>t.aoyama@capital-knowledge.co.jp</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>平素は格段のお引立てを賜り厚く御礼申し上げます。</t>
@@ -461,35 +455,7 @@
     <rPh sb="19" eb="20">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>さて、この度ご契約頂きましたプレカット加工図面が出来上がりましたので、添付にて送付致します。</t>
-    <rPh sb="5" eb="6">
-      <t>タビ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>カコウズメン</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>テンプ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ソウフ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>イタ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>尚、ご希望の納期が</t>
@@ -502,7 +468,7 @@
     <rPh sb="6" eb="8">
       <t>ノウキ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>12月31日</t>
@@ -512,7 +478,7 @@
     <rPh sb="5" eb="6">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>とお伺いしておりますので、少なくとも</t>
@@ -522,7 +488,7 @@
     <rPh sb="13" eb="14">
       <t>スク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>12月15日</t>
@@ -532,7 +498,7 @@
     <rPh sb="5" eb="6">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -577,7 +543,7 @@
     <rPh sb="28" eb="29">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>尚、今般の原材料の入荷不足や遅延に伴い、今回ご承諾を頂きました物件におきましても</t>
@@ -611,7 +577,7 @@
     <rPh sb="31" eb="33">
       <t>ブッケン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>入荷状況に応じて樹材種の変更、納期の遅れなどを余儀なくされる可能性がございます。</t>
@@ -642,7 +608,7 @@
     <rPh sb="30" eb="33">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>何卒、その旨ご理解いただきたく御願いします。</t>
@@ -658,7 +624,7 @@
     <rPh sb="16" eb="17">
       <t>ネガ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>確認と致しまして、現時点でのプレカット加工以外の情報把握内容は下記でございます。</t>
@@ -683,7 +649,7 @@
     <rPh sb="31" eb="33">
       <t>カキ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>工務店記入欄</t>
@@ -693,7 +659,7 @@
     <rPh sb="3" eb="6">
       <t>キニュウラン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>プレカット加工承諾書</t>
@@ -703,7 +669,7 @@
     <rPh sb="7" eb="10">
       <t>ショウダクショ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>株式会社 岡本銘木店 行き</t>
@@ -716,7 +682,7 @@
     <rPh sb="11" eb="12">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>(注：添付しております最終図面にてご確認ください。）</t>
@@ -732,7 +698,7 @@
     <rPh sb="18" eb="20">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>のプレカット加工を承諾する。</t>
@@ -742,7 +708,7 @@
     <rPh sb="9" eb="11">
       <t>ショウダク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>　　　　　年　　　月　　　日</t>
@@ -755,14 +721,14 @@
     <rPh sb="13" eb="14">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>印</t>
     <rPh sb="0" eb="1">
       <t>イン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ご連絡事項があればご記入下さい。</t>
@@ -778,7 +744,7 @@
     <rPh sb="12" eb="13">
       <t>クダ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>※　尚、承諾後に著しい変更が発生した場合は有償となります。</t>
@@ -803,7 +769,7 @@
     <rPh sb="21" eb="23">
       <t>ユウショウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>岡本銘木店記入欄</t>
@@ -816,7 +782,7 @@
     <rPh sb="5" eb="8">
       <t>キニュウラン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>本書面にて最終確認後、速やかに担当営業者が押印の上、入力担当者へ送信願います。</t>
@@ -847,7 +813,7 @@
     <rPh sb="34" eb="35">
       <t>ネガ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>担当営業</t>
@@ -857,7 +823,7 @@
     <rPh sb="2" eb="4">
       <t>エイギョウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>2021年7月21日　改定</t>
@@ -873,14 +839,14 @@
     <rPh sb="11" eb="13">
       <t>カイテイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ご承認を頂きます様宜しくお願い申し上げます。</t>
@@ -905,7 +871,7 @@
     <rPh sb="17" eb="18">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>工事店様名</t>
@@ -921,7 +887,7 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>尚、付記すべき事があれば宜しくお願いいたします。</t>
@@ -940,14 +906,56 @@
     <rPh sb="16" eb="17">
       <t>ネガ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>御中</t>
+    <rPh sb="0" eb="2">
+      <t>オンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>（株）アイケイジャパン</t>
+    <rPh sb="1" eb="2">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>さて、この度ご契約頂きましたプレカット加工図面が出来上りましたので、添付にて送付致します。</t>
+    <rPh sb="5" eb="6">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>カコウズメン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <name val="ＭＳ ゴシック"/>
@@ -994,12 +1002,6 @@
       <sz val="8"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1420,195 +1422,196 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="12" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_最后的Baleaf_shoes-size_breakdown_CLORTS20091120" xfId="8" xr:uid="{B5F259B6-9101-4BE5-8AC1-AFA67F78A66C}"/>
-    <cellStyle name="桁区切り 2" xfId="9" xr:uid="{E2AE78B3-4A27-40FF-A3C9-13063890BCB3}"/>
+  <cellStyles count="13">
+    <cellStyle name="桁区切り 2" xfId="8" xr:uid="{E2AE78B3-4A27-40FF-A3C9-13063890BCB3}"/>
+    <cellStyle name="常规_最后的Baleaf_shoes-size_breakdown_CLORTS20091120" xfId="7" xr:uid="{B5F259B6-9101-4BE5-8AC1-AFA67F78A66C}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{A1E9317F-0822-4251-A0AB-DCC16F633D93}"/>
-    <cellStyle name="標準 2 2" xfId="10" xr:uid="{A5047D02-E728-4E3C-A9BD-9E08401C8C5D}"/>
-    <cellStyle name="標準 2 2 2" xfId="11" xr:uid="{2C683F04-DBA3-4BDD-9978-91E59F7610B4}"/>
-    <cellStyle name="標準 3" xfId="3" xr:uid="{9728DD69-5D8C-4D2E-B992-688E72C61967}"/>
-    <cellStyle name="標準 4" xfId="4" xr:uid="{2C6AC600-241C-4962-AB2A-8699889AAB3F}"/>
-    <cellStyle name="標準 48" xfId="5" xr:uid="{5E870760-3DC4-4F36-808D-EC48DDCDAB46}"/>
-    <cellStyle name="標準 5" xfId="6" xr:uid="{5426D455-E53A-4C3B-9DEA-91A0B33BF6A4}"/>
-    <cellStyle name="標準 5 2" xfId="12" xr:uid="{C41D0ABF-4E5E-4F79-993F-A15A702DCB8A}"/>
-    <cellStyle name="標準 6" xfId="7" xr:uid="{E8864E03-FCF2-4278-A17B-A877CBF6F16A}"/>
-    <cellStyle name="標準 7" xfId="13" xr:uid="{195E2736-59EC-4B2A-8646-B5B077AC74F8}"/>
-    <cellStyle name="標準_ｺｰﾄﾞ体系_ﾌｧｲﾙﾚｲｱｳﾄ_ﾌｧｲﾙﾚｲｱｳﾄ" xfId="2" xr:uid="{6E763B77-95DE-44C7-989A-9DC3909CF696}"/>
+    <cellStyle name="標準 2 2" xfId="9" xr:uid="{A5047D02-E728-4E3C-A9BD-9E08401C8C5D}"/>
+    <cellStyle name="標準 2 2 2" xfId="10" xr:uid="{2C683F04-DBA3-4BDD-9978-91E59F7610B4}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{9728DD69-5D8C-4D2E-B992-688E72C61967}"/>
+    <cellStyle name="標準 4" xfId="3" xr:uid="{2C6AC600-241C-4962-AB2A-8699889AAB3F}"/>
+    <cellStyle name="標準 48" xfId="4" xr:uid="{5E870760-3DC4-4F36-808D-EC48DDCDAB46}"/>
+    <cellStyle name="標準 5" xfId="5" xr:uid="{5426D455-E53A-4C3B-9DEA-91A0B33BF6A4}"/>
+    <cellStyle name="標準 5 2" xfId="11" xr:uid="{C41D0ABF-4E5E-4F79-993F-A15A702DCB8A}"/>
+    <cellStyle name="標準 6" xfId="6" xr:uid="{E8864E03-FCF2-4278-A17B-A877CBF6F16A}"/>
+    <cellStyle name="標準 7" xfId="12" xr:uid="{195E2736-59EC-4B2A-8646-B5B077AC74F8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8397,7 +8400,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8695,9 +8698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B3819F-D43E-45C4-BE97-19748926A21B}">
   <dimension ref="A2:AG62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AU28" sqref="AU28"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <cols>
@@ -8711,42 +8712,44 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="14.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="4" t="s">
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="40"/>
+      <c r="AB4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="AF4" s="3"/>
     </row>
@@ -8770,121 +8773,121 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:32" ht="17.25">
-      <c r="A6" s="46" t="s">
-        <v>5</v>
+      <c r="A6" s="47" t="s">
+        <v>4</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="AB6" s="45" t="s">
-        <v>3</v>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="AB6" s="46" t="s">
+        <v>2</v>
       </c>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
       <c r="AE6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="Q7" s="47" t="s">
-        <v>6</v>
+      <c r="Q7" s="48" t="s">
+        <v>5</v>
       </c>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="5.25" customHeight="1"/>
     <row r="11" spans="1:32">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="18.75">
       <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="18.75">
-      <c r="B13" s="39" t="s">
-        <v>12</v>
+      <c r="B13" s="41" t="s">
+        <v>10</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="5.25" customHeight="1"/>
     <row r="15" spans="1:32">
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="5.25" customHeight="1"/>
     <row r="17" spans="1:33">
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="5.25" customHeight="1"/>
     <row r="19" spans="1:33">
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="5.25" customHeight="1"/>
     <row r="21" spans="1:33">
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="5.25" customHeight="1"/>
     <row r="23" spans="1:33">
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="5.25" customHeight="1"/>
@@ -8902,7 +8905,7 @@
     </row>
     <row r="29" spans="1:33" ht="14.25" thickBot="1">
       <c r="A29" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -8922,7 +8925,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -8949,14 +8952,14 @@
     <row r="31" spans="1:33">
       <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG31" s="21"/>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="20"/>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG32" s="21"/>
     </row>
@@ -8979,7 +8982,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB34" s="30"/>
       <c r="AC34" s="31"/>
@@ -8998,7 +9001,7 @@
     <row r="36" spans="1:33">
       <c r="A36" s="20"/>
       <c r="B36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -9024,7 +9027,7 @@
     <row r="38" spans="1:33">
       <c r="A38" s="20"/>
       <c r="N38" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -9043,14 +9046,14 @@
       <c r="AC38" s="37"/>
       <c r="AD38" s="37"/>
       <c r="AE38" s="38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG38" s="21"/>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="20"/>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG39" s="21"/>
     </row>
@@ -9083,7 +9086,7 @@
     <row r="45" spans="1:33">
       <c r="A45" s="20"/>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG45" s="21"/>
     </row>
@@ -9124,7 +9127,7 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -9162,14 +9165,14 @@
     <row r="49" spans="1:33">
       <c r="A49" s="9"/>
       <c r="B49" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG49" s="10"/>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG50" s="10"/>
     </row>
@@ -9201,12 +9204,12 @@
     </row>
     <row r="56" spans="1:33" ht="18.75">
       <c r="A56" s="9"/>
-      <c r="O56" s="41" t="s">
-        <v>29</v>
+      <c r="O56" s="43" t="s">
+        <v>27</v>
       </c>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="43"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="45"/>
       <c r="AG56" s="10"/>
     </row>
     <row r="57" spans="1:33">
@@ -9272,14 +9275,13 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="O56:R56"/>
-    <mergeCell ref="A4:T4"/>
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="AB6:AD6"/>
@@ -9290,8 +9292,8 @@
   <hyperlinks>
     <hyperlink ref="Q7" r:id="rId1" xr:uid="{4659E5AA-7FAF-4D56-8F27-AC54E35FB5A0}"/>
   </hyperlinks>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="151" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.9055118110236221" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="62" max="16383" man="1"/>
   </rowBreaks>
